--- a/data/georgia_census/kakheti/yvareli/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/yvareli/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF4E4C45-2330-488C-8D30-590DC3133ED4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC30F953-118C-48DA-87FD-56781942C5D9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6BFF8A6-B849-468B-B18C-6E944AE48EBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D12E86-C428-468E-AD1B-2C9B814E2B41}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FAC532A-B965-4617-863B-CAFFF7DC6AE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18D5C9-6860-449D-A958-47C62F91B375}"/>
 </file>